--- a/power.xlsx
+++ b/power.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>fmdkf</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>test test</t>
+  </si>
+  <si>
+    <t>this is dummy</t>
   </si>
 </sst>
 </file>
@@ -359,7 +362,7 @@
   <dimension ref="B3:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -367,6 +370,11 @@
     <row r="3" spans="2:8">
       <c r="B3" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="H7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:8">
